--- a/docs/Datos.xlsx
+++ b/docs/Datos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Dropbox (Personal)\Universidad\Infracomp\Casos\Infracomp\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jd.torres11\Documents\GitHub\InfraComp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" tabRatio="790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" tabRatio="790" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Carga 400 - 1 thread" sheetId="1" r:id="rId1"/>
@@ -106,12 +106,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -141,10 +153,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,37 +494,39 @@
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1">
+      <c r="C2" s="6">
         <v>400</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H3" t="s">
@@ -518,10 +540,18 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="C4" s="1">
+        <v>96516</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3201</v>
+      </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
@@ -533,10 +563,18 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="1">
+        <v>104419</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1695</v>
+      </c>
       <c r="H5" t="s">
         <v>10</v>
       </c>
@@ -548,10 +586,18 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="C6" s="1">
+        <v>94912</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2278</v>
+      </c>
       <c r="H6" t="s">
         <v>11</v>
       </c>
@@ -563,10 +609,18 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="1">
+        <v>106473</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6301</v>
+      </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
@@ -578,10 +632,18 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="1">
+        <v>100980</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5163</v>
+      </c>
       <c r="H8" t="s">
         <v>13</v>
       </c>
@@ -593,10 +655,18 @@
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="1">
+        <v>100845</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4325</v>
+      </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
@@ -608,10 +678,18 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="1">
+        <v>92478</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4041</v>
+      </c>
       <c r="H10" t="s">
         <v>15</v>
       </c>
@@ -623,10 +701,18 @@
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="1">
+        <v>101479</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2526</v>
+      </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
@@ -666,7 +752,7 @@
   <dimension ref="A4:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D14"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,26 +760,28 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -704,10 +792,18 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="1">
+        <v>55005</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4506</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -716,10 +812,18 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="C6" s="1">
+        <v>47176</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3427</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -728,10 +832,18 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="1">
+        <v>50656</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4775</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -740,10 +852,18 @@
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="1">
+        <v>48553</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3402</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -752,10 +872,18 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="C9" s="1">
+        <v>49723</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5056</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -764,10 +892,18 @@
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="1">
+        <v>47329</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5277</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -776,10 +912,18 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="1">
+        <v>48466</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6003</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -788,10 +932,18 @@
       <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="C12" s="1">
+        <v>48953</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3698</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -827,7 +979,7 @@
   <dimension ref="G4:L14"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J14"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,26 +987,27 @@
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -865,10 +1018,18 @@
       <c r="H5" s="1">
         <v>8</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="I5" s="1">
+        <v>24619</v>
+      </c>
+      <c r="J5" s="1">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>13625</v>
+      </c>
     </row>
     <row r="6" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G6" s="1">
@@ -877,10 +1038,18 @@
       <c r="H6" s="1">
         <v>8</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="I6" s="1">
+        <v>24135</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5748</v>
+      </c>
     </row>
     <row r="7" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G7" s="1">
@@ -889,10 +1058,18 @@
       <c r="H7" s="1">
         <v>8</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="I7" s="1">
+        <v>24460</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>6470</v>
+      </c>
     </row>
     <row r="8" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G8" s="1">
@@ -901,10 +1078,18 @@
       <c r="H8" s="1">
         <v>8</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="I8" s="1">
+        <v>22388</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4695</v>
+      </c>
     </row>
     <row r="9" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G9" s="1">
@@ -913,10 +1098,18 @@
       <c r="H9" s="1">
         <v>8</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="I9" s="1">
+        <v>23256</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>8649</v>
+      </c>
     </row>
     <row r="10" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G10" s="1">
@@ -925,10 +1118,18 @@
       <c r="H10" s="1">
         <v>8</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="2"/>
+      <c r="I10" s="1">
+        <v>22680</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>14689</v>
+      </c>
     </row>
     <row r="11" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G11" s="1">
@@ -937,10 +1138,18 @@
       <c r="H11" s="1">
         <v>8</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="I11" s="1">
+        <v>22309</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>6539</v>
+      </c>
     </row>
     <row r="12" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G12" s="1">
@@ -949,10 +1158,18 @@
       <c r="H12" s="1">
         <v>8</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="I12" s="1">
+        <v>21242</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>16923</v>
+      </c>
     </row>
     <row r="13" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G13" s="1">
@@ -985,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A3:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,40 +1214,43 @@
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1">
+      <c r="C3" s="4">
         <v>200</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1">
+      <c r="E3" s="4">
         <v>40</v>
       </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1041,10 +1261,18 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="1">
+        <v>48498</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2709</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1053,10 +1281,18 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="C6" s="1">
+        <v>56538</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4487</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1065,10 +1301,18 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="1">
+        <v>51537</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3969</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1077,10 +1321,18 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="1">
+        <v>65643</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5114</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1089,10 +1341,18 @@
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="C9" s="1">
+        <v>46764</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3318</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1101,10 +1361,18 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="1">
+        <v>50434</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3539</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1113,10 +1381,18 @@
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="1">
+        <v>48355</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2665</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1125,10 +1401,18 @@
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="C12" s="1">
+        <v>41581</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3509</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1163,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/Datos.xlsx
+++ b/docs/Datos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" tabRatio="790" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" tabRatio="790" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Carga 400 - 1 thread" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="18">
   <si>
     <t>#threads</t>
   </si>
@@ -84,6 +84,9 @@
   <si>
     <t xml:space="preserve">tiempo actualizacion </t>
   </si>
+  <si>
+    <t>tiempo actualizacion (ms)</t>
+  </si>
 </sst>
 </file>
 
@@ -106,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -165,6 +174,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1445,45 +1456,52 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B1">
+      <c r="C2" s="7">
         <v>200</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D1">
+      <c r="E2" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1494,10 +1512,18 @@
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="C4" s="1">
+        <v>26656</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3622</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1506,10 +1532,18 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="1">
+        <v>26227</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>11536</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1518,10 +1552,18 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="C6" s="1">
+        <v>28111</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>9894</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1530,10 +1572,18 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="1">
+        <v>24895</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2657</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1542,10 +1592,18 @@
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="1">
+        <v>21581</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8192</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1554,10 +1612,18 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="1">
+        <v>20787</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10868</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1566,10 +1632,18 @@
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="1">
+        <v>23835</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10756</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1578,10 +1652,18 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="1">
+        <v>22183</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10384</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1614,50 +1696,52 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B1">
+      <c r="C2" s="7">
         <v>200</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D1">
+      <c r="E2" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1668,10 +1752,18 @@
       <c r="B4" s="1">
         <v>8</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="C4" s="1">
+        <v>11463</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>12590</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1680,10 +1772,18 @@
       <c r="B5" s="1">
         <v>8</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="1">
+        <v>10534</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>13707</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1692,10 +1792,18 @@
       <c r="B6" s="1">
         <v>8</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="C6" s="1">
+        <v>11525</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>13168</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1704,10 +1812,18 @@
       <c r="B7" s="1">
         <v>8</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="1">
+        <v>12424</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>16315</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1716,10 +1832,18 @@
       <c r="B8" s="1">
         <v>8</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="1">
+        <v>11273</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15622</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1728,10 +1852,18 @@
       <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="1">
+        <v>11599</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>15056</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1740,10 +1872,18 @@
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="1">
+        <v>11976</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>14129</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1752,10 +1892,18 @@
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="1">
+        <v>12227</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>12574</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1790,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,7 +1947,11 @@
     <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1815,36 +1967,38 @@
       <c r="D1">
         <v>100</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="H1">
+      <c r="I2" s="7">
         <v>80</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="J1">
+      <c r="K2" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="J3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1870,10 +2024,18 @@
       <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="I4" s="1">
+        <v>18283</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>9164</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1891,10 +2053,18 @@
       <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="I5" s="1">
+        <v>21016</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>8269</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1912,10 +2082,18 @@
       <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="I6" s="1">
+        <v>17229</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>9441</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1933,10 +2111,18 @@
       <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="I7" s="1">
+        <v>20154</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>9782</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1954,10 +2140,18 @@
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="I8" s="1">
+        <v>18048</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>10406</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1975,10 +2169,18 @@
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="2"/>
+      <c r="I9" s="1">
+        <v>18038</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>10350</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">

--- a/docs/Datos.xlsx
+++ b/docs/Datos.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Dropbox (Personal)\Universidad\Infracomp\Casos\Infracomp\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\CODD.sis.virtual.uniandes.edu.co\Estudiantes\Profiles\d.marino10\Documents\infrac\InfraComp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" tabRatio="790" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="790" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Carga 400 - 1 thread" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Carga 80 - 2 threads" sheetId="9" r:id="rId8"/>
     <sheet name="Carga 80 - 8 threads" sheetId="5" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -176,6 +176,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,7 +195,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -363,7 +364,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1896-40EE-A9F8-68032C6B7EE1}"/>
             </c:ext>
@@ -464,7 +465,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1896-40EE-A9F8-68032C6B7EE1}"/>
             </c:ext>
@@ -565,7 +566,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-1896-40EE-A9F8-68032C6B7EE1}"/>
             </c:ext>
@@ -579,11 +580,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="364224792"/>
-        <c:axId val="364225120"/>
+        <c:axId val="195521792"/>
+        <c:axId val="195522352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="364224792"/>
+        <c:axId val="195521792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,12 +701,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364225120"/>
+        <c:crossAx val="195522352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="364225120"/>
+        <c:axId val="195522352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,7 +823,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364224792"/>
+        <c:crossAx val="195521792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -903,7 +904,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -947,6 +948,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1074,7 +1076,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A957-4C47-A390-B19E2F9EDC8D}"/>
             </c:ext>
@@ -1088,11 +1090,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="544323640"/>
-        <c:axId val="544313472"/>
+        <c:axId val="296493536"/>
+        <c:axId val="296494096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="544323640"/>
+        <c:axId val="296493536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,6 +1145,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1209,12 +1212,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544313472"/>
+        <c:crossAx val="296494096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="544313472"/>
+        <c:axId val="296494096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,6 +1268,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1331,7 +1335,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544323640"/>
+        <c:crossAx val="296493536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1381,7 +1385,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1555,7 +1559,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5A13-4799-BE8F-F7994C5AE81E}"/>
             </c:ext>
@@ -1656,7 +1660,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5A13-4799-BE8F-F7994C5AE81E}"/>
             </c:ext>
@@ -1757,7 +1761,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5A13-4799-BE8F-F7994C5AE81E}"/>
             </c:ext>
@@ -1771,11 +1775,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="421957456"/>
-        <c:axId val="363132080"/>
+        <c:axId val="195525712"/>
+        <c:axId val="195526272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="421957456"/>
+        <c:axId val="195525712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1892,12 +1896,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363132080"/>
+        <c:crossAx val="195526272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="363132080"/>
+        <c:axId val="195526272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2014,7 +2018,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421957456"/>
+        <c:crossAx val="195525712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2095,7 +2099,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2264,7 +2268,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-18AD-4392-A06F-5D6244CAD43C}"/>
             </c:ext>
@@ -2365,7 +2369,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-18AD-4392-A06F-5D6244CAD43C}"/>
             </c:ext>
@@ -2466,7 +2470,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-18AD-4392-A06F-5D6244CAD43C}"/>
             </c:ext>
@@ -2480,11 +2484,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="363122240"/>
-        <c:axId val="363124536"/>
+        <c:axId val="192215520"/>
+        <c:axId val="192211040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="363122240"/>
+        <c:axId val="192215520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2601,12 +2605,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363124536"/>
+        <c:crossAx val="192211040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="363124536"/>
+        <c:axId val="192211040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2718,7 +2722,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363122240"/>
+        <c:crossAx val="192215520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2768,7 +2772,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2939,7 +2943,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F434-4E38-8F66-8468359604B0}"/>
             </c:ext>
@@ -2953,11 +2957,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="436354520"/>
-        <c:axId val="436361736"/>
+        <c:axId val="292320864"/>
+        <c:axId val="292321424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="436354520"/>
+        <c:axId val="292320864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3014,12 +3018,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436361736"/>
+        <c:crossAx val="292321424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="436361736"/>
+        <c:axId val="292321424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3076,7 +3080,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436354520"/>
+        <c:crossAx val="292320864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3126,7 +3130,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3170,6 +3174,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3297,7 +3302,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AA71-49F2-9AD0-6BB109E1652A}"/>
             </c:ext>
@@ -3311,11 +3316,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="427972592"/>
-        <c:axId val="427973904"/>
+        <c:axId val="292323664"/>
+        <c:axId val="292324224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="427972592"/>
+        <c:axId val="292323664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3366,6 +3371,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3432,12 +3438,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427973904"/>
+        <c:crossAx val="292324224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="427973904"/>
+        <c:axId val="292324224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3483,6 +3489,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3549,7 +3556,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427972592"/>
+        <c:crossAx val="292323664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3599,7 +3606,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3643,6 +3650,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3773,7 +3781,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D94C-41FB-959D-5789B63128E0}"/>
             </c:ext>
@@ -3874,7 +3882,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D94C-41FB-959D-5789B63128E0}"/>
             </c:ext>
@@ -3975,7 +3983,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D94C-41FB-959D-5789B63128E0}"/>
             </c:ext>
@@ -3989,11 +3997,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="425522000"/>
-        <c:axId val="425523640"/>
+        <c:axId val="295197648"/>
+        <c:axId val="295198208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="425522000"/>
+        <c:axId val="295197648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4044,6 +4052,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4110,12 +4119,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425523640"/>
+        <c:crossAx val="295198208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="425523640"/>
+        <c:axId val="295198208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4161,6 +4170,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4227,7 +4237,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425522000"/>
+        <c:crossAx val="295197648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4241,6 +4251,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4308,7 +4319,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4352,6 +4363,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4482,7 +4494,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8366-493F-9BBC-26E941AF9D2C}"/>
             </c:ext>
@@ -4583,7 +4595,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8366-493F-9BBC-26E941AF9D2C}"/>
             </c:ext>
@@ -4684,7 +4696,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8366-493F-9BBC-26E941AF9D2C}"/>
             </c:ext>
@@ -4698,11 +4710,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="363126504"/>
-        <c:axId val="363131424"/>
+        <c:axId val="295201568"/>
+        <c:axId val="295202128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="363126504"/>
+        <c:axId val="295201568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4753,6 +4765,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4819,12 +4832,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363131424"/>
+        <c:crossAx val="295202128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="363131424"/>
+        <c:axId val="295202128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4875,6 +4888,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4941,7 +4955,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363126504"/>
+        <c:crossAx val="295201568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4955,6 +4969,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5022,7 +5037,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5066,6 +5081,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5196,7 +5212,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B7BE-411C-8863-9A77309B5762}"/>
             </c:ext>
@@ -5297,7 +5313,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B7BE-411C-8863-9A77309B5762}"/>
             </c:ext>
@@ -5398,7 +5414,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B7BE-411C-8863-9A77309B5762}"/>
             </c:ext>
@@ -5412,11 +5428,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="544300024"/>
-        <c:axId val="544300352"/>
+        <c:axId val="296487936"/>
+        <c:axId val="296488496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="544300024"/>
+        <c:axId val="296487936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5467,6 +5483,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5533,12 +5550,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544300352"/>
+        <c:crossAx val="296488496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="544300352"/>
+        <c:axId val="296488496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5584,6 +5601,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5650,7 +5668,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544300024"/>
+        <c:crossAx val="296487936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5664,6 +5682,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5731,7 +5750,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5775,6 +5794,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5902,7 +5922,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-72C6-4518-AB49-E332A1C1B12D}"/>
             </c:ext>
@@ -5916,11 +5936,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="435115696"/>
-        <c:axId val="435110776"/>
+        <c:axId val="296490736"/>
+        <c:axId val="296491296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="435115696"/>
+        <c:axId val="296490736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5966,6 +5986,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6032,12 +6053,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435110776"/>
+        <c:crossAx val="296491296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="435110776"/>
+        <c:axId val="296491296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6088,6 +6109,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6154,7 +6176,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435115696"/>
+        <c:crossAx val="296490736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12891,7 +12913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G4:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
@@ -13845,7 +13867,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G11" sqref="A11:XFD11"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14084,7 +14106,7 @@
       <c r="K9" s="1">
         <v>0</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="9">
         <v>10350</v>
       </c>
     </row>
@@ -14104,9 +14126,15 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="1">
+        <v>17004</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -14125,9 +14153,15 @@
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="1">
+        <v>19102</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -14146,9 +14180,15 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="1">
+        <v>21007</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -14167,9 +14207,15 @@
       <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="1">
+        <v>17161</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -14439,6 +14485,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14446,15 +14493,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -14498,9 +14545,15 @@
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="1">
+        <v>6988</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -14510,9 +14563,15 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="C5" s="1">
+        <v>7235</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -14522,9 +14581,15 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="1">
+        <v>11715</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -14534,9 +14599,15 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="1">
+        <v>7434</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/docs/Datos.xlsx
+++ b/docs/Datos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\CODD.sis.virtual.uniandes.edu.co\Estudiantes\Profiles\d.marino10\Documents\infrac\InfraComp\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.marino10\git\InfraComp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -580,11 +580,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195521792"/>
-        <c:axId val="195522352"/>
+        <c:axId val="37593680"/>
+        <c:axId val="37601840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195521792"/>
+        <c:axId val="37593680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,12 +701,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195522352"/>
+        <c:crossAx val="37601840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195522352"/>
+        <c:axId val="37601840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -823,7 +823,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195521792"/>
+        <c:crossAx val="37593680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -948,7 +948,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1090,11 +1089,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="296493536"/>
-        <c:axId val="296494096"/>
+        <c:axId val="187925120"/>
+        <c:axId val="187914784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="296493536"/>
+        <c:axId val="187925120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +1144,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1212,12 +1210,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296494096"/>
+        <c:crossAx val="187914784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296494096"/>
+        <c:axId val="187914784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,7 +1266,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1335,7 +1332,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296493536"/>
+        <c:crossAx val="187925120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1775,11 +1772,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195525712"/>
-        <c:axId val="195526272"/>
+        <c:axId val="37604560"/>
+        <c:axId val="37594768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195525712"/>
+        <c:axId val="37604560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1896,12 +1893,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195526272"/>
+        <c:crossAx val="37594768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195526272"/>
+        <c:axId val="37594768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2018,7 +2015,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195525712"/>
+        <c:crossAx val="37604560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2484,11 +2481,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="192215520"/>
-        <c:axId val="192211040"/>
+        <c:axId val="37598576"/>
+        <c:axId val="37601296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192215520"/>
+        <c:axId val="37598576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2605,12 +2602,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192211040"/>
+        <c:crossAx val="37601296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192211040"/>
+        <c:axId val="37601296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2722,7 +2719,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192215520"/>
+        <c:crossAx val="37598576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2957,11 +2954,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="292320864"/>
-        <c:axId val="292321424"/>
+        <c:axId val="37589872"/>
+        <c:axId val="37590416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="292320864"/>
+        <c:axId val="37589872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3018,12 +3015,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292321424"/>
+        <c:crossAx val="37590416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="292321424"/>
+        <c:axId val="37590416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3080,7 +3077,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292320864"/>
+        <c:crossAx val="37589872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3174,7 +3171,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3316,11 +3312,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="292323664"/>
-        <c:axId val="292324224"/>
+        <c:axId val="37592592"/>
+        <c:axId val="37594224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="292323664"/>
+        <c:axId val="37592592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3371,7 +3367,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3438,12 +3433,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292324224"/>
+        <c:crossAx val="37594224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="292324224"/>
+        <c:axId val="37594224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3489,7 +3484,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3556,7 +3550,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292323664"/>
+        <c:crossAx val="37592592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3650,7 +3644,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3997,11 +3990,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="295197648"/>
-        <c:axId val="295198208"/>
+        <c:axId val="187921312"/>
+        <c:axId val="187915328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="295197648"/>
+        <c:axId val="187921312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4052,7 +4045,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4119,12 +4111,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295198208"/>
+        <c:crossAx val="187915328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="295198208"/>
+        <c:axId val="187915328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4170,7 +4162,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4237,7 +4228,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295197648"/>
+        <c:crossAx val="187921312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4251,7 +4242,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4363,7 +4353,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4710,11 +4699,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="295201568"/>
-        <c:axId val="295202128"/>
+        <c:axId val="187926208"/>
+        <c:axId val="187916960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="295201568"/>
+        <c:axId val="187926208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4765,7 +4754,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4832,12 +4820,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295202128"/>
+        <c:crossAx val="187916960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="295202128"/>
+        <c:axId val="187916960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4888,7 +4876,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4955,7 +4942,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295201568"/>
+        <c:crossAx val="187926208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4969,7 +4956,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5081,7 +5067,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5428,11 +5413,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="296487936"/>
-        <c:axId val="296488496"/>
+        <c:axId val="187927840"/>
+        <c:axId val="187926752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="296487936"/>
+        <c:axId val="187927840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5483,7 +5468,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5550,12 +5534,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296488496"/>
+        <c:crossAx val="187926752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296488496"/>
+        <c:axId val="187926752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5601,7 +5585,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5668,7 +5651,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296487936"/>
+        <c:crossAx val="187927840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5682,7 +5665,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5794,7 +5776,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5936,11 +5917,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="296490736"/>
-        <c:axId val="296491296"/>
+        <c:axId val="187913696"/>
+        <c:axId val="187920224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="296490736"/>
+        <c:axId val="187913696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5986,7 +5967,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6053,12 +6033,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296491296"/>
+        <c:crossAx val="187920224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296491296"/>
+        <c:axId val="187920224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6109,7 +6089,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6176,7 +6155,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296490736"/>
+        <c:crossAx val="187913696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14494,7 +14473,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14617,9 +14596,15 @@
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8" s="1">
+        <v>8463</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -14629,9 +14614,15 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="1">
+        <v>8192</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -14641,9 +14632,15 @@
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="C10" s="1">
+        <v>7749</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -14653,9 +14650,15 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="1">
+        <v>6119</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -14665,9 +14668,15 @@
       <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="C12" s="1">
+        <v>9510</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -14677,9 +14686,15 @@
       <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="1">
+        <v>7724</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
   </sheetData>

--- a/docs/Datos.xlsx
+++ b/docs/Datos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.marino10\git\InfraComp\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\CODD.sis.virtual.uniandes.edu.co\Estudiantes\Profiles\mi.arevalo10\Documents\Infracomp\Casos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="790" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" tabRatio="790" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Carga 400 - 1 thread" sheetId="1" r:id="rId1"/>
@@ -580,11 +580,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="37593680"/>
-        <c:axId val="37601840"/>
+        <c:axId val="-2110921392"/>
+        <c:axId val="-2110920848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37593680"/>
+        <c:axId val="-2110921392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,12 +701,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37601840"/>
+        <c:crossAx val="-2110920848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="37601840"/>
+        <c:axId val="-2110920848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -823,7 +823,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37593680"/>
+        <c:crossAx val="-2110921392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1089,11 +1089,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187925120"/>
-        <c:axId val="187914784"/>
+        <c:axId val="-2142100368"/>
+        <c:axId val="-2142103632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187925120"/>
+        <c:axId val="-2142100368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,12 +1210,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187914784"/>
+        <c:crossAx val="-2142103632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187914784"/>
+        <c:axId val="-2142103632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1332,7 +1332,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187925120"/>
+        <c:crossAx val="-2142100368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1772,11 +1772,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="37604560"/>
-        <c:axId val="37594768"/>
+        <c:axId val="-1938386384"/>
+        <c:axId val="-1938376048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37604560"/>
+        <c:axId val="-1938386384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1893,12 +1893,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37594768"/>
+        <c:crossAx val="-1938376048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="37594768"/>
+        <c:axId val="-1938376048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,7 +2015,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37604560"/>
+        <c:crossAx val="-1938386384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2481,11 +2481,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="37598576"/>
-        <c:axId val="37601296"/>
+        <c:axId val="-1938388016"/>
+        <c:axId val="-1938391280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37598576"/>
+        <c:axId val="-1938388016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2602,12 +2602,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37601296"/>
+        <c:crossAx val="-1938391280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="37601296"/>
+        <c:axId val="-1938391280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2719,7 +2719,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37598576"/>
+        <c:crossAx val="-1938388016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2954,11 +2954,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="37589872"/>
-        <c:axId val="37590416"/>
+        <c:axId val="-1938385296"/>
+        <c:axId val="-1938384752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37589872"/>
+        <c:axId val="-1938385296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3015,12 +3015,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37590416"/>
+        <c:crossAx val="-1938384752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="37590416"/>
+        <c:axId val="-1938384752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3077,7 +3077,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37589872"/>
+        <c:crossAx val="-1938385296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3312,11 +3312,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="37592592"/>
-        <c:axId val="37594224"/>
+        <c:axId val="-1938384208"/>
+        <c:axId val="-1938378224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37592592"/>
+        <c:axId val="-1938384208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3433,12 +3433,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37594224"/>
+        <c:crossAx val="-1938378224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="37594224"/>
+        <c:axId val="-1938378224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3550,7 +3550,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37592592"/>
+        <c:crossAx val="-1938384208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3990,11 +3990,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187921312"/>
-        <c:axId val="187915328"/>
+        <c:axId val="-1938390192"/>
+        <c:axId val="-1938389104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187921312"/>
+        <c:axId val="-1938390192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4111,12 +4111,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187915328"/>
+        <c:crossAx val="-1938389104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187915328"/>
+        <c:axId val="-1938389104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4228,7 +4228,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187921312"/>
+        <c:crossAx val="-1938390192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4699,11 +4699,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187926208"/>
-        <c:axId val="187916960"/>
+        <c:axId val="-2142115600"/>
+        <c:axId val="-2142115056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187926208"/>
+        <c:axId val="-2142115600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4820,12 +4820,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187916960"/>
+        <c:crossAx val="-2142115056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187916960"/>
+        <c:axId val="-2142115056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4942,7 +4942,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187926208"/>
+        <c:crossAx val="-2142115600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5413,11 +5413,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187927840"/>
-        <c:axId val="187926752"/>
+        <c:axId val="-2142110704"/>
+        <c:axId val="-2142105264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187927840"/>
+        <c:axId val="-2142110704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5534,12 +5534,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187926752"/>
+        <c:crossAx val="-2142105264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187926752"/>
+        <c:axId val="-2142105264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5651,7 +5651,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187927840"/>
+        <c:crossAx val="-2142110704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5917,11 +5917,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187913696"/>
-        <c:axId val="187920224"/>
+        <c:axId val="-2142112336"/>
+        <c:axId val="-2142104176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187913696"/>
+        <c:axId val="-2142112336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6033,12 +6033,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187920224"/>
+        <c:crossAx val="-2142104176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187920224"/>
+        <c:axId val="-2142104176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6155,7 +6155,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187913696"/>
+        <c:crossAx val="-2142112336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12393,8 +12393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13119,7 +13119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -14473,7 +14473,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C8" sqref="C8:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14707,7 +14707,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14759,9 +14759,15 @@
       <c r="B4" s="1">
         <v>8</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="1">
+        <v>3617</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -14771,9 +14777,15 @@
       <c r="B5" s="1">
         <v>8</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="C5" s="1">
+        <v>1762</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -14783,9 +14795,15 @@
       <c r="B6" s="1">
         <v>8</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="1">
+        <v>1160</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -14795,9 +14813,15 @@
       <c r="B7" s="1">
         <v>8</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="1">
+        <v>1385</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/docs/Datos.xlsx
+++ b/docs/Datos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" tabRatio="790" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" tabRatio="790" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Carga 400 - 1 thread" sheetId="1" r:id="rId1"/>
@@ -234,6 +234,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -580,11 +581,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2110921392"/>
-        <c:axId val="-2110920848"/>
+        <c:axId val="-408378544"/>
+        <c:axId val="-408389424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110921392"/>
+        <c:axId val="-408378544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -635,6 +636,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -701,12 +703,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110920848"/>
+        <c:crossAx val="-408389424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2110920848"/>
+        <c:axId val="-408389424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -757,6 +759,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -823,7 +826,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110921392"/>
+        <c:crossAx val="-408378544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -837,6 +840,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1089,11 +1093,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142100368"/>
-        <c:axId val="-2142103632"/>
+        <c:axId val="-407700464"/>
+        <c:axId val="-407697744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142100368"/>
+        <c:axId val="-407700464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,12 +1214,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142103632"/>
+        <c:crossAx val="-407697744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142103632"/>
+        <c:axId val="-407697744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1332,7 +1336,1254 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142100368"/>
+        <c:crossAx val="-407700464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Carga 80:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> # threads vs Tiempo autenticación(ms) </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 thread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 1 thread'!$H$4:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 1 thread'!$I$4:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17229</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18038</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 2 threads'!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 2 threads'!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8463</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7749</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9510</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>8 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 8 threads'!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 8 threads'!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1762</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-407708080"/>
+        <c:axId val="-407699920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-407708080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>N°</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> de threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-407699920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-407699920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tiempo autenticación</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-407708080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Carga 80:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> #threads vs #transacciones perdidas</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 thread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 1 thread'!$H$4:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 1 thread'!$K$4:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 2 threads'!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 2 threads'!$E$4:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>8 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 8 threads'!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga 80 - 8 threads'!$E$4:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-369414352"/>
+        <c:axId val="-369423056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-369414352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-369423056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-369423056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-369414352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1426,6 +2677,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1772,11 +3024,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1938386384"/>
-        <c:axId val="-1938376048"/>
+        <c:axId val="-408383440"/>
+        <c:axId val="-408381264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1938386384"/>
+        <c:axId val="-408383440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1827,6 +3079,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1893,12 +3146,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1938376048"/>
+        <c:crossAx val="-408381264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1938376048"/>
+        <c:axId val="-408381264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,6 +3202,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2015,7 +3269,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1938386384"/>
+        <c:crossAx val="-408383440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2029,6 +3283,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2135,6 +3390,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2481,11 +3737,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1938388016"/>
-        <c:axId val="-1938391280"/>
+        <c:axId val="-408391056"/>
+        <c:axId val="-408380176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1938388016"/>
+        <c:axId val="-408391056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2536,6 +3792,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2602,12 +3859,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1938391280"/>
+        <c:crossAx val="-408380176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1938391280"/>
+        <c:axId val="-408380176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2653,6 +3910,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2719,7 +3977,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1938388016"/>
+        <c:crossAx val="-408391056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2813,6 +4071,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2954,11 +4213,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1938385296"/>
-        <c:axId val="-1938384752"/>
+        <c:axId val="-408382352"/>
+        <c:axId val="-408388880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1938385296"/>
+        <c:axId val="-408382352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3015,12 +4274,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1938384752"/>
+        <c:crossAx val="-408388880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1938384752"/>
+        <c:axId val="-408388880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3077,7 +4336,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1938385296"/>
+        <c:crossAx val="-408382352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3312,11 +4571,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1938384208"/>
-        <c:axId val="-1938378224"/>
+        <c:axId val="-408379088"/>
+        <c:axId val="-408386160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1938384208"/>
+        <c:axId val="-408379088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3433,12 +4692,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1938378224"/>
+        <c:crossAx val="-408386160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1938378224"/>
+        <c:axId val="-408386160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3550,7 +4809,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1938384208"/>
+        <c:crossAx val="-408379088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3990,11 +5249,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1938390192"/>
-        <c:axId val="-1938389104"/>
+        <c:axId val="-408388336"/>
+        <c:axId val="-408387792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1938390192"/>
+        <c:axId val="-408388336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4111,12 +5370,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1938389104"/>
+        <c:crossAx val="-408387792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1938389104"/>
+        <c:axId val="-408387792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4228,7 +5487,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1938390192"/>
+        <c:crossAx val="-408388336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4699,11 +5958,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142115600"/>
-        <c:axId val="-2142115056"/>
+        <c:axId val="-408384528"/>
+        <c:axId val="-407701552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142115600"/>
+        <c:axId val="-408384528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4820,12 +6079,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142115056"/>
+        <c:crossAx val="-407701552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142115056"/>
+        <c:axId val="-407701552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4942,7 +6201,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142115600"/>
+        <c:crossAx val="-408384528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5413,11 +6672,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142110704"/>
-        <c:axId val="-2142105264"/>
+        <c:axId val="-407695568"/>
+        <c:axId val="-407702640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142110704"/>
+        <c:axId val="-407695568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5534,12 +6793,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142105264"/>
+        <c:crossAx val="-407702640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142105264"/>
+        <c:axId val="-407702640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5651,7 +6910,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142110704"/>
+        <c:crossAx val="-407695568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5917,11 +7176,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142112336"/>
-        <c:axId val="-2142104176"/>
+        <c:axId val="-407706448"/>
+        <c:axId val="-407708624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142112336"/>
+        <c:axId val="-407706448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6033,12 +7292,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142104176"/>
+        <c:crossAx val="-407708624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142104176"/>
+        <c:axId val="-407708624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6155,7 +7414,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142112336"/>
+        <c:crossAx val="-407706448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6245,6 +7504,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7636,6 +8975,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -12094,6 +14465,71 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1552575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -12393,7 +14829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -13605,7 +16041,7 @@
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F4" sqref="F4:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13845,8 +16281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14465,6 +16901,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14472,8 +16909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
